--- a/data/save_data/2022/minter_a.xlsx
+++ b/data/save_data/2022/minter_a.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,16 @@
           <t>IP</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>I0</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>IF</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -497,6 +507,12 @@
       <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -525,6 +541,12 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
+      <c r="I3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -553,6 +575,12 @@
       <c r="H4" t="n">
         <v>1</v>
       </c>
+      <c r="I4" t="n">
+        <v>8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -580,6 +608,12 @@
       </c>
       <c r="H5" t="n">
         <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -609,6 +643,12 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
+      <c r="I6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +677,12 @@
       <c r="H7" t="n">
         <v>1</v>
       </c>
+      <c r="I7" t="n">
+        <v>8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -665,6 +711,12 @@
       <c r="H8" t="n">
         <v>1</v>
       </c>
+      <c r="I8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,6 +745,12 @@
       <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="I9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -720,6 +778,12 @@
       </c>
       <c r="H10" t="n">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -749,6 +813,12 @@
       <c r="H11" t="n">
         <v>1</v>
       </c>
+      <c r="I11" t="n">
+        <v>8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -777,6 +847,12 @@
       <c r="H12" t="n">
         <v>1</v>
       </c>
+      <c r="I12" t="n">
+        <v>8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -805,6 +881,12 @@
       <c r="H13" t="n">
         <v>2</v>
       </c>
+      <c r="I13" t="n">
+        <v>7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -833,6 +915,12 @@
       <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="I14" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -861,6 +949,12 @@
       <c r="H15" t="n">
         <v>1</v>
       </c>
+      <c r="I15" t="n">
+        <v>8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -889,6 +983,12 @@
       <c r="H16" t="n">
         <v>1</v>
       </c>
+      <c r="I16" t="n">
+        <v>7</v>
+      </c>
+      <c r="J16" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -917,6 +1017,12 @@
       <c r="H17" t="n">
         <v>1</v>
       </c>
+      <c r="I17" t="n">
+        <v>8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -945,6 +1051,12 @@
       <c r="H18" t="n">
         <v>1</v>
       </c>
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -973,6 +1085,12 @@
       <c r="H19" t="n">
         <v>1</v>
       </c>
+      <c r="I19" t="n">
+        <v>8</v>
+      </c>
+      <c r="J19" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1001,6 +1119,12 @@
       <c r="H20" t="n">
         <v>1</v>
       </c>
+      <c r="I20" t="n">
+        <v>8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1029,6 +1153,12 @@
       <c r="H21" t="n">
         <v>1</v>
       </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1057,6 +1187,12 @@
       <c r="H22" t="n">
         <v>1</v>
       </c>
+      <c r="I22" t="n">
+        <v>8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1085,6 +1221,12 @@
       <c r="H23" t="n">
         <v>1</v>
       </c>
+      <c r="I23" t="n">
+        <v>7</v>
+      </c>
+      <c r="J23" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1113,6 +1255,12 @@
       <c r="H24" t="n">
         <v>2</v>
       </c>
+      <c r="I24" t="n">
+        <v>8</v>
+      </c>
+      <c r="J24" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1141,6 +1289,12 @@
       <c r="H25" t="n">
         <v>1</v>
       </c>
+      <c r="I25" t="n">
+        <v>8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1169,6 +1323,12 @@
       <c r="H26" t="n">
         <v>1</v>
       </c>
+      <c r="I26" t="n">
+        <v>8</v>
+      </c>
+      <c r="J26" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1197,6 +1357,12 @@
       <c r="H27" t="n">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>8</v>
+      </c>
+      <c r="J27" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1225,6 +1391,12 @@
       <c r="H28" t="n">
         <v>1</v>
       </c>
+      <c r="I28" t="n">
+        <v>8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1253,6 +1425,12 @@
       <c r="H29" t="n">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>7</v>
+      </c>
+      <c r="J29" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1281,6 +1459,12 @@
       <c r="H30" t="n">
         <v>1</v>
       </c>
+      <c r="I30" t="n">
+        <v>7</v>
+      </c>
+      <c r="J30" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1309,6 +1493,12 @@
       <c r="H31" t="n">
         <v>2</v>
       </c>
+      <c r="I31" t="n">
+        <v>6</v>
+      </c>
+      <c r="J31" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1337,6 +1527,12 @@
       <c r="H32" t="n">
         <v>1</v>
       </c>
+      <c r="I32" t="n">
+        <v>9</v>
+      </c>
+      <c r="J32" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1365,6 +1561,12 @@
       <c r="H33" t="n">
         <v>1</v>
       </c>
+      <c r="I33" t="n">
+        <v>9</v>
+      </c>
+      <c r="J33" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1393,6 +1595,12 @@
       <c r="H34" t="n">
         <v>1</v>
       </c>
+      <c r="I34" t="n">
+        <v>8</v>
+      </c>
+      <c r="J34" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1421,6 +1629,12 @@
       <c r="H35" t="n">
         <v>1</v>
       </c>
+      <c r="I35" t="n">
+        <v>8</v>
+      </c>
+      <c r="J35" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1449,6 +1663,12 @@
       <c r="H36" t="n">
         <v>1</v>
       </c>
+      <c r="I36" t="n">
+        <v>9</v>
+      </c>
+      <c r="J36" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1477,6 +1697,12 @@
       <c r="H37" t="n">
         <v>1</v>
       </c>
+      <c r="I37" t="n">
+        <v>8</v>
+      </c>
+      <c r="J37" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1505,6 +1731,12 @@
       <c r="H38" t="n">
         <v>1</v>
       </c>
+      <c r="I38" t="n">
+        <v>9</v>
+      </c>
+      <c r="J38" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1533,6 +1765,12 @@
       <c r="H39" t="n">
         <v>1</v>
       </c>
+      <c r="I39" t="n">
+        <v>9</v>
+      </c>
+      <c r="J39" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1561,6 +1799,12 @@
       <c r="H40" t="n">
         <v>1</v>
       </c>
+      <c r="I40" t="n">
+        <v>9</v>
+      </c>
+      <c r="J40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1589,6 +1833,12 @@
       <c r="H41" t="n">
         <v>1</v>
       </c>
+      <c r="I41" t="n">
+        <v>9</v>
+      </c>
+      <c r="J41" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1617,6 +1867,12 @@
       <c r="H42" t="n">
         <v>1</v>
       </c>
+      <c r="I42" t="n">
+        <v>9</v>
+      </c>
+      <c r="J42" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1645,6 +1901,12 @@
       <c r="H43" t="n">
         <v>1</v>
       </c>
+      <c r="I43" t="n">
+        <v>7</v>
+      </c>
+      <c r="J43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1673,6 +1935,12 @@
       <c r="H44" t="n">
         <v>1</v>
       </c>
+      <c r="I44" t="n">
+        <v>9</v>
+      </c>
+      <c r="J44" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1701,6 +1969,12 @@
       <c r="H45" t="n">
         <v>1</v>
       </c>
+      <c r="I45" t="n">
+        <v>8</v>
+      </c>
+      <c r="J45" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1729,6 +2003,12 @@
       <c r="H46" t="n">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>8</v>
+      </c>
+      <c r="J46" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1757,6 +2037,12 @@
       <c r="H47" t="n">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>9</v>
+      </c>
+      <c r="J47" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1785,6 +2071,12 @@
       <c r="H48" t="n">
         <v>1</v>
       </c>
+      <c r="I48" t="n">
+        <v>8</v>
+      </c>
+      <c r="J48" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1813,6 +2105,12 @@
       <c r="H49" t="n">
         <v>1</v>
       </c>
+      <c r="I49" t="n">
+        <v>8</v>
+      </c>
+      <c r="J49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1841,6 +2139,12 @@
       <c r="H50" t="n">
         <v>1</v>
       </c>
+      <c r="I50" t="n">
+        <v>8</v>
+      </c>
+      <c r="J50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1869,6 +2173,12 @@
       <c r="H51" t="n">
         <v>1</v>
       </c>
+      <c r="I51" t="n">
+        <v>8</v>
+      </c>
+      <c r="J51" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1897,6 +2207,12 @@
       <c r="H52" t="n">
         <v>1</v>
       </c>
+      <c r="I52" t="n">
+        <v>8</v>
+      </c>
+      <c r="J52" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1925,6 +2241,12 @@
       <c r="H53" t="n">
         <v>1</v>
       </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1953,6 +2275,12 @@
       <c r="H54" t="n">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>10</v>
+      </c>
+      <c r="J54" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1981,6 +2309,12 @@
       <c r="H55" t="n">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>9</v>
+      </c>
+      <c r="J55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2009,6 +2343,12 @@
       <c r="H56" t="n">
         <v>1</v>
       </c>
+      <c r="I56" t="n">
+        <v>6</v>
+      </c>
+      <c r="J56" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2037,6 +2377,12 @@
       <c r="H57" t="n">
         <v>1</v>
       </c>
+      <c r="I57" t="n">
+        <v>8</v>
+      </c>
+      <c r="J57" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2065,6 +2411,12 @@
       <c r="H58" t="n">
         <v>1</v>
       </c>
+      <c r="I58" t="n">
+        <v>8</v>
+      </c>
+      <c r="J58" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2093,6 +2445,12 @@
       <c r="H59" t="n">
         <v>1</v>
       </c>
+      <c r="I59" t="n">
+        <v>8</v>
+      </c>
+      <c r="J59" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2121,6 +2479,12 @@
       <c r="H60" t="n">
         <v>1</v>
       </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2149,6 +2513,12 @@
       <c r="H61" t="n">
         <v>1</v>
       </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2177,6 +2547,12 @@
       <c r="H62" t="n">
         <v>2</v>
       </c>
+      <c r="I62" t="n">
+        <v>7</v>
+      </c>
+      <c r="J62" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2205,6 +2581,12 @@
       <c r="H63" t="n">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>8</v>
+      </c>
+      <c r="J63" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2233,6 +2615,12 @@
       <c r="H64" t="n">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>7</v>
+      </c>
+      <c r="J64" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2261,6 +2649,12 @@
       <c r="H65" t="n">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>7</v>
+      </c>
+      <c r="J65" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2289,6 +2683,12 @@
       <c r="H66" t="n">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>8</v>
+      </c>
+      <c r="J66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2317,6 +2717,12 @@
       <c r="H67" t="n">
         <v>1</v>
       </c>
+      <c r="I67" t="n">
+        <v>8</v>
+      </c>
+      <c r="J67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2345,6 +2751,12 @@
       <c r="H68" t="n">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>8</v>
+      </c>
+      <c r="J68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2373,6 +2785,12 @@
       <c r="H69" t="n">
         <v>1</v>
       </c>
+      <c r="I69" t="n">
+        <v>8</v>
+      </c>
+      <c r="J69" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2401,6 +2819,12 @@
       <c r="H70" t="n">
         <v>1</v>
       </c>
+      <c r="I70" t="n">
+        <v>8</v>
+      </c>
+      <c r="J70" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2429,6 +2853,12 @@
       <c r="H71" t="n">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>7</v>
+      </c>
+      <c r="J71" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2457,6 +2887,12 @@
       <c r="H72" t="n">
         <v>2</v>
       </c>
+      <c r="I72" t="n">
+        <v>6</v>
+      </c>
+      <c r="J72" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2485,6 +2921,12 @@
       <c r="H73" t="n">
         <v>1</v>
       </c>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2513,6 +2955,12 @@
       <c r="H74" t="n">
         <v>1</v>
       </c>
+      <c r="I74" t="n">
+        <v>6</v>
+      </c>
+      <c r="J74" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2541,6 +2989,12 @@
       <c r="H75" t="n">
         <v>1</v>
       </c>
+      <c r="I75" t="n">
+        <v>6</v>
+      </c>
+      <c r="J75" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2569,6 +3023,12 @@
       <c r="H76" t="n">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>7</v>
+      </c>
+      <c r="J76" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2597,6 +3057,12 @@
       <c r="H77" t="n">
         <v>1</v>
       </c>
+      <c r="I77" t="n">
+        <v>7</v>
+      </c>
+      <c r="J77" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2625,6 +3091,12 @@
       <c r="H78" t="n">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>6</v>
+      </c>
+      <c r="J78" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2653,6 +3125,12 @@
       <c r="H79" t="n">
         <v>1</v>
       </c>
+      <c r="I79" t="n">
+        <v>8</v>
+      </c>
+      <c r="J79" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2681,6 +3159,12 @@
       <c r="H80" t="n">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>6</v>
+      </c>
+      <c r="J80" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2708,6 +3192,12 @@
       </c>
       <c r="H81" t="n">
         <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
